--- a/Hardware/2U-PCB-Com_Nucleo-L432kC/Com_Nucleo-L432kc/Fichiers de fabrication/thingsat_inisat-v1_0-06_02_2025/BOM/thingsat_inisat-v1_0-06_02_2025.xlsx
+++ b/Hardware/2U-PCB-Com_Nucleo-L432kC/Com_Nucleo-L432kc/Fichiers de fabrication/thingsat_inisat-v1_0-06_02_2025/BOM/thingsat_inisat-v1_0-06_02_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leo/github/flatsat/flatsat/Hardware/2U-PCB-Com_Nucleo-L432kC/Com_Nucleo-L432kc/Fichiers de fabrication/thingsat_inisat-v1_0-06_02_2025/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9F7EE4FC-FDE8-6C48-8534-718584CBD08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8448BD68-EE9D-C341-BB8B-3DDAA33DC31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{8EFC9A56-C63E-0D45-9F94-F01D77D6FEB0}"/>
   </bookViews>
@@ -1233,7 +1233,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F17" sqref="B2:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1550,7 +1550,8 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>